--- a/biology/Zoologie/Delma/Delma.xlsx
+++ b/biology/Zoologie/Delma/Delma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delma est un genre de geckos de la famille des Pygopodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delma est un genre de geckos de la famille des Pygopodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 22 espèces de ce genre sont endémiques d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 22 espèces de ce genre sont endémiques d'Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 août 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 août 2015) :
 Delma australis Kluge, 1974
 Delma borea Kluge, 1974
 Delma butleri Storr, 1987
@@ -594,9 +610,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aclys[3] a été placé en synonymie avec Delma par Jennings, Pianka et Donnellan en 2003[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aclys a été placé en synonymie avec Delma par Jennings, Pianka et Donnellan en 2003.
 </t>
         </is>
       </c>
@@ -625,7 +643,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1831 "1830" : A synopsis of the species of Class Reptilia. The animal kingdom arranged in conformity with its organisation by the Baron Cuvier with additional descriptions of all the species hither named, and of many before noticed, V Whittaker, Treacher and Co., London, vol. 9, Supplement, p. 1-110 (texte intégral).</t>
         </is>
